--- a/DailyReport_2026-01-11_John_Smith.xlsx
+++ b/DailyReport_2026-01-11_John_Smith.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="73">
   <si>
     <t>Date and Time</t>
   </si>
@@ -30,16 +30,16 @@
     <t>Avg Blood Pressure</t>
   </si>
   <si>
-    <t>2026-01-11 11:33</t>
-  </si>
-  <si>
-    <t>129/66</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34</t>
-  </si>
-  <si>
-    <t>122/75</t>
+    <t>2026-01-11 12:39</t>
+  </si>
+  <si>
+    <t>120/77</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40</t>
+  </si>
+  <si>
+    <t>116/73</t>
   </si>
   <si>
     <t>Vital Type</t>
@@ -51,172 +51,187 @@
     <t>Level</t>
   </si>
   <si>
-    <t>2026-01-11 11:33:52</t>
+    <t>2026-01-11 12:39:37</t>
+  </si>
+  <si>
+    <t>HeartRate</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>RespRate</t>
+  </si>
+  <si>
+    <t>AMBER</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:39:38</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:39:39</t>
   </si>
   <si>
     <t>BloodPressure</t>
   </si>
   <si>
-    <t>AMBER</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>RespRate</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:33:53</t>
-  </si>
-  <si>
-    <t>RED</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:33:54</t>
-  </si>
-  <si>
-    <t>HeartRate</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:33:55</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:33:56</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:33:58</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:00</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:02</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:03</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:05</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:06</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:07</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:08</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:09</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:10</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:11</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:12</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:13</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:14</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:15</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:17</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:18</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:19</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:20</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:22</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:23</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:24</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:25</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:26</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:27</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:28</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:29</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:30</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:31</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:32</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:33</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:35</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:37</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:39</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:40</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:41</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:42</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:44</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:45</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:46</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:47</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:48</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:49</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:50</t>
-  </si>
-  <si>
-    <t>2026-01-11 11:34:51</t>
+    <t>2026-01-11 12:39:40</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:39:41</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:39:42</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:39:43</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:39:44</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:39:45</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:39:46</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:39:47</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:39:48</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:39:49</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:39:50</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:39:51</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:39:52</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:39:53</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:39:54</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:39:55</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:39:57</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:39:58</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:39:59</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:00</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:01</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:02</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:03</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:05</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:06</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:07</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:08</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:11</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:12</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:13</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:14</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:15</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:16</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:17</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:18</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:19</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:20</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:21</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:22</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:23</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:25</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:26</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:27</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:28</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:29</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:30</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:31</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:32</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:33</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:34</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:36</t>
+  </si>
+  <si>
+    <t>2026-01-11 12:40:37</t>
   </si>
 </sst>
 </file>
@@ -296,13 +311,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>63.0</v>
+        <v>78.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>6</v>
@@ -313,13 +328,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>79.0</v>
+        <v>74.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>8</v>
@@ -332,7 +347,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -366,7 +381,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>95.0</v>
+        <v>119.0</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>14</v>
@@ -380,10 +395,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>35.0</v>
+        <v>24.0</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -391,38 +406,38 @@
         <v>12</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>21.0</v>
+        <v>38.0</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>34.0</v>
+        <v>100.0</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>41.0</v>
+        <v>34.0</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>14</v>
@@ -433,10 +448,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>140.0</v>
+        <v>82.0</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>14</v>
@@ -444,27 +459,27 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>10.0</v>
+        <v>34.0</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>14</v>
@@ -475,13 +490,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" t="n" s="0">
         <v>36.0</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -492,63 +507,63 @@
         <v>20</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>34.0</v>
+        <v>157.0</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>8.0</v>
+        <v>28.0</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>36.0</v>
+        <v>95.0</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n" s="0">
         <v>39.0</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>15</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>38.0</v>
+        <v>28.0</v>
       </c>
       <c r="D15" t="s" s="0">
         <v>14</v>
@@ -556,41 +571,41 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>32.0</v>
+        <v>42.0</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>30.0</v>
+        <v>89.0</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>153.0</v>
+        <v>40.0</v>
       </c>
       <c r="D18" t="s" s="0">
         <v>14</v>
@@ -598,55 +613,55 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>24.0</v>
+        <v>39.0</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>111.0</v>
+        <v>86.0</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>28.0</v>
+        <v>119.0</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>9.0</v>
+        <v>82.0</v>
       </c>
       <c r="D22" t="s" s="0">
         <v>14</v>
@@ -654,27 +669,27 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>81.0</v>
+        <v>23.0</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
       <c r="D24" t="s" s="0">
         <v>14</v>
@@ -682,27 +697,27 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>46.0</v>
+        <v>35.0</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s" s="0">
         <v>13</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>152.0</v>
+        <v>119.0</v>
       </c>
       <c r="D26" t="s" s="0">
         <v>14</v>
@@ -710,55 +725,55 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>111.0</v>
+        <v>98.0</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>8.0</v>
+        <v>36.0</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>15</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>40.0</v>
+        <v>8.0</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s" s="0">
         <v>13</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>91.0</v>
+        <v>113.0</v>
       </c>
       <c r="D30" t="s" s="0">
         <v>14</v>
@@ -766,13 +781,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>36.0</v>
+        <v>82.0</v>
       </c>
       <c r="D31" t="s" s="0">
         <v>14</v>
@@ -780,195 +795,195 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>22.0</v>
+        <v>48.0</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s" s="0">
         <v>15</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>116.0</v>
+        <v>35.0</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C35" t="n" s="0">
         <v>96.0</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>30.0</v>
+        <v>27.0</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s" s="0">
         <v>13</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>81.0</v>
+        <v>97.0</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s" s="0">
         <v>15</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>40.0</v>
+        <v>23.0</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>46.0</v>
+        <v>38.0</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s" s="0">
         <v>13</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>147.0</v>
+        <v>42.0</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>8.0</v>
+        <v>94.0</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>34.0</v>
+        <v>85.0</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s" s="0">
         <v>15</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>39.0</v>
+        <v>28.0</v>
       </c>
       <c r="D45" t="s" s="0">
         <v>14</v>
@@ -976,83 +991,83 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s" s="0">
         <v>13</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>160.0</v>
+        <v>44.0</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>34.0</v>
+        <v>116.0</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>29.0</v>
+        <v>8.0</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C49" t="n" s="0">
         <v>38.0</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>92.0</v>
+        <v>95.0</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>9.0</v>
+        <v>34.0</v>
       </c>
       <c r="D51" t="s" s="0">
         <v>14</v>
@@ -1060,13 +1075,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>153.0</v>
+        <v>7.0</v>
       </c>
       <c r="D52" t="s" s="0">
         <v>14</v>
@@ -1074,41 +1089,41 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>40.0</v>
+        <v>115.0</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>83.0</v>
+        <v>152.0</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>9.0</v>
+        <v>40.0</v>
       </c>
       <c r="D55" t="s" s="0">
         <v>14</v>
@@ -1116,52 +1131,52 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>120.0</v>
+        <v>23.0</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s" s="0">
         <v>15</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>35.0</v>
+        <v>27.0</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C59" t="n" s="0">
         <v>39.0</v>
@@ -1172,69 +1187,69 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>22.0</v>
+        <v>160.0</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s" s="0">
         <v>15</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>40.0</v>
+        <v>22.0</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>87.0</v>
+        <v>38.0</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>112.0</v>
+        <v>111.0</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>97.0</v>
+        <v>7.0</v>
       </c>
       <c r="D64" t="s" s="0">
         <v>14</v>
@@ -1242,41 +1257,41 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>30.0</v>
+        <v>49.0</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>38.0</v>
+        <v>100.0</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>11.0</v>
+        <v>39.0</v>
       </c>
       <c r="D67" t="s" s="0">
         <v>14</v>
@@ -1284,13 +1299,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>93.0</v>
+        <v>35.0</v>
       </c>
       <c r="D68" t="s" s="0">
         <v>14</v>
@@ -1298,27 +1313,27 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>146.0</v>
+        <v>36.0</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="D70" t="s" s="0">
         <v>14</v>
@@ -1326,83 +1341,83 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C71" t="n" s="0">
         <v>35.0</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>82.0</v>
+        <v>36.0</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>26.0</v>
+        <v>88.0</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>117.0</v>
+        <v>28.0</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C75" t="n" s="0">
         <v>35.0</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="D76" t="s" s="0">
         <v>14</v>
@@ -1410,27 +1425,27 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>9.0</v>
+        <v>93.0</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B78" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>97.0</v>
+        <v>84.0</v>
       </c>
       <c r="D78" t="s" s="0">
         <v>14</v>
@@ -1438,13 +1453,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>158.0</v>
+        <v>27.0</v>
       </c>
       <c r="D79" t="s" s="0">
         <v>14</v>
@@ -1452,41 +1467,41 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>7.0</v>
+        <v>156.0</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>114.0</v>
+        <v>39.0</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>11.0</v>
+        <v>81.0</v>
       </c>
       <c r="D82" t="s" s="0">
         <v>14</v>
@@ -1494,55 +1509,55 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B83" t="s" s="0">
         <v>15</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>36.0</v>
+        <v>25.0</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>143.0</v>
+        <v>35.0</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>36.0</v>
+        <v>94.0</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>42.0</v>
+        <v>30.0</v>
       </c>
       <c r="D86" t="s" s="0">
         <v>14</v>
@@ -1550,55 +1565,55 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>30.0</v>
+        <v>96.0</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C88" t="n" s="0">
         <v>35.0</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>140.0</v>
+        <v>11.0</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>10.0</v>
+        <v>40.0</v>
       </c>
       <c r="D90" t="s" s="0">
         <v>14</v>
@@ -1606,44 +1621,86 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B91" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>95.0</v>
+        <v>147.0</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C92" t="n" s="0">
-        <v>30.0</v>
+        <v>27.0</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C93" t="n" s="0">
-        <v>39.0</v>
+        <v>142.0</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C94" t="n" s="0">
+        <v>48.0</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C95" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C96" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
